--- a/medicine/Enfance/Gilbert_Dupuis_(écrivain)/Gilbert_Dupuis_(écrivain).xlsx
+++ b/medicine/Enfance/Gilbert_Dupuis_(écrivain)/Gilbert_Dupuis_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gilbert_Dupuis_(%C3%A9crivain)</t>
+          <t>Gilbert_Dupuis_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Dupuis est un écrivain québécois né en 1947 à Pabos (Gaspésie).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gilbert_Dupuis_(%C3%A9crivain)</t>
+          <t>Gilbert_Dupuis_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est diplômé de l'École polytechnique de Montréal en génie électrique et de l'Université du Québec à Rimouski en administration.
-En 1981, il est cofondateur de Les éditions coopératives de l’Est du Québec et de la revue littéraire Urgences (devenue [1] Tangence).
+En 1981, il est cofondateur de Les éditions coopératives de l’Est du Québec et de la revue littéraire Urgences (devenue  Tangence).
 Il préside le Salon du livre de Rimouski en 1980 et 1981.
 Son roman La Marcheuse, publié en 1990, est finaliste au prix Robert-Cliche 1987.
 Il est membre de l'UNEQ (Union des écrivains québécois) et de la SOCAN (Société canadienne des auteurs, compositeurs et éditeurs de musique).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gilbert_Dupuis_(%C3%A9crivain)</t>
+          <t>Gilbert_Dupuis_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Abécédyslexique, glossaire humoristique de mots-valises, ÉDITEQ, 2007
 Les Papiers de la terre, roman, ÉDITEQ, 1995
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gilbert_Dupuis_(%C3%A9crivain)</t>
+          <t>Gilbert_Dupuis_(écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Dans des ouvrages collectifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Gens du fleuve, Stanké, 1993
 Tendresse au pluriel, livre-cassette de poèmes, ÉDITEQ, 1993
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gilbert_Dupuis_(%C3%A9crivain)</t>
+          <t>Gilbert_Dupuis_(écrivain)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1987 : Finaliste au prix Robert-Cliche, La Marcheuse</t>
         </is>
